--- a/raw-data/Bmp7-CT-scans.xlsx
+++ b/raw-data/Bmp7-CT-scans.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmrot\Documents\R\Bmp7-ins\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmrot\Documents\R\Bmp7-ins\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF33912-B0C9-4A4D-80C6-8027F80134A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06A743-67CC-42C7-A88C-6D001DA09187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="13824" windowHeight="7104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="227">
   <si>
     <t>Age</t>
   </si>
@@ -503,6 +516,204 @@
   </si>
   <si>
     <t>K2732</t>
+  </si>
+  <si>
+    <t>C1122</t>
+  </si>
+  <si>
+    <t>C441</t>
+  </si>
+  <si>
+    <t>C525</t>
+  </si>
+  <si>
+    <t>C529</t>
+  </si>
+  <si>
+    <t>C573</t>
+  </si>
+  <si>
+    <t>C574</t>
+  </si>
+  <si>
+    <t>C575</t>
+  </si>
+  <si>
+    <t>C577</t>
+  </si>
+  <si>
+    <t>C578</t>
+  </si>
+  <si>
+    <t>C579</t>
+  </si>
+  <si>
+    <t>C580</t>
+  </si>
+  <si>
+    <t>C581</t>
+  </si>
+  <si>
+    <t>C582</t>
+  </si>
+  <si>
+    <t>C583</t>
+  </si>
+  <si>
+    <t>C585</t>
+  </si>
+  <si>
+    <t>C589</t>
+  </si>
+  <si>
+    <t>C590</t>
+  </si>
+  <si>
+    <t>C592</t>
+  </si>
+  <si>
+    <t>C593</t>
+  </si>
+  <si>
+    <t>C594</t>
+  </si>
+  <si>
+    <t>C595</t>
+  </si>
+  <si>
+    <t>C597</t>
+  </si>
+  <si>
+    <t>C601</t>
+  </si>
+  <si>
+    <t>C679</t>
+  </si>
+  <si>
+    <t>C681</t>
+  </si>
+  <si>
+    <t>C682</t>
+  </si>
+  <si>
+    <t>C683</t>
+  </si>
+  <si>
+    <t>C684</t>
+  </si>
+  <si>
+    <t>C686</t>
+  </si>
+  <si>
+    <t>C687</t>
+  </si>
+  <si>
+    <t>C734</t>
+  </si>
+  <si>
+    <t>C737</t>
+  </si>
+  <si>
+    <t>C739</t>
+  </si>
+  <si>
+    <t>C740</t>
+  </si>
+  <si>
+    <t>C744</t>
+  </si>
+  <si>
+    <t>C743</t>
+  </si>
+  <si>
+    <t>C935</t>
+  </si>
+  <si>
+    <t>C535</t>
+  </si>
+  <si>
+    <t>C537</t>
+  </si>
+  <si>
+    <t>C539</t>
+  </si>
+  <si>
+    <t>C542</t>
+  </si>
+  <si>
+    <t>C921</t>
+  </si>
+  <si>
+    <t>C1151</t>
+  </si>
+  <si>
+    <t>C1155</t>
+  </si>
+  <si>
+    <t>C912</t>
+  </si>
+  <si>
+    <t>C914</t>
+  </si>
+  <si>
+    <t>C916</t>
+  </si>
+  <si>
+    <t>fpmx_a_L1</t>
+  </si>
+  <si>
+    <t>fpmx_a_L2</t>
+  </si>
+  <si>
+    <t>fpmx_a_L3</t>
+  </si>
+  <si>
+    <t>fpmx_b_L1</t>
+  </si>
+  <si>
+    <t>fpmx_b_L2</t>
+  </si>
+  <si>
+    <t>fpmx_b_L3</t>
+  </si>
+  <si>
+    <t>fpmx_a_R1</t>
+  </si>
+  <si>
+    <t>fpmx_a_R2</t>
+  </si>
+  <si>
+    <t>fpmx_a_R3</t>
+  </si>
+  <si>
+    <t>fpmx_b_R1</t>
+  </si>
+  <si>
+    <t>fpmx_b_R2</t>
+  </si>
+  <si>
+    <t>fpmx_b_R3</t>
+  </si>
+  <si>
+    <t>avg_fpmx_a_R</t>
+  </si>
+  <si>
+    <t>avg_fpmx_b_R</t>
+  </si>
+  <si>
+    <t>fpmx_complexity_R</t>
+  </si>
+  <si>
+    <t>avg_fpmx_a_L</t>
+  </si>
+  <si>
+    <t>avg_fpmx_b_L</t>
+  </si>
+  <si>
+    <t>fpmx_complexity_L</t>
+  </si>
+  <si>
+    <t>fpmx_complexity_ratio</t>
   </si>
 </sst>
 </file>
@@ -844,11 +1055,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y918"/>
+  <dimension ref="A1:AC965"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB63" sqref="AB63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -857,7 +1068,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +1090,65 @@
       <c r="G1" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -903,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -926,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -949,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -972,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1177,14 +1445,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,14 +1465,16 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1495,9 @@
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,20 +1516,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="5">
-        <v>43919</v>
+      <c r="E18" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1263,20 +1536,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5">
-        <v>43919</v>
+      <c r="E19" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1284,11 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5">
         <v>43919</v>
@@ -1305,20 +1579,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>43919</v>
+        <v>138</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1326,14 +1599,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="5">
-        <v>44264</v>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>130</v>
@@ -1344,17 +1619,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="5">
-        <v>44264</v>
+        <v>43919</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1362,17 +1642,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="5">
-        <v>44510</v>
+        <v>43919</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1380,17 +1665,22 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="5">
-        <v>44510</v>
+        <v>43919</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1398,14 +1688,14 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
-        <v>44510</v>
+        <v>44264</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>130</v>
@@ -1416,16 +1706,14 @@
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="5">
-        <v>43675</v>
+        <v>44264</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>130</v>
@@ -1433,404 +1721,458 @@
     </row>
     <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5">
-        <v>44274</v>
+        <v>138</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>129</v>
+      <c r="E29" s="5">
+        <v>44510</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="5">
+        <v>44510</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5">
+        <v>44510</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E32" s="5">
+        <v>43675</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E33" s="5">
+        <v>44274</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
+      <c r="E35" s="3">
+        <v>44700</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>27</v>
+      <c r="E36" s="3">
+        <v>44700</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>27</v>
+      <c r="E37" s="3">
+        <v>44700</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="5">
-        <v>44510</v>
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="5">
-        <v>44510</v>
+      <c r="E39" s="3">
+        <v>44700</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="3">
-        <v>44719</v>
+        <v>44700</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="3">
-        <v>44719</v>
+        <v>44700</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="3">
-        <v>44719</v>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>9.875</v>
+      </c>
+      <c r="I42">
+        <v>9.9359999999999999</v>
+      </c>
+      <c r="J42">
+        <v>9.9350000000000005</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(H42:J42)</f>
+        <v>9.9153333333333347</v>
+      </c>
+      <c r="L42">
+        <v>1.038</v>
+      </c>
+      <c r="M42">
+        <v>1.03</v>
+      </c>
+      <c r="N42">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="O42">
+        <f>AVERAGE(L42:N42)</f>
+        <v>1.0330000000000001</v>
+      </c>
+      <c r="P42">
+        <f>K42/O42</f>
+        <v>9.5985801871571468</v>
+      </c>
+      <c r="Q42">
+        <v>7.117</v>
+      </c>
+      <c r="R42">
+        <v>6.96</v>
+      </c>
+      <c r="S42">
+        <v>6.9969999999999999</v>
+      </c>
+      <c r="T42">
+        <f>AVERAGE(Q42:S42)</f>
+        <v>7.0246666666666657</v>
+      </c>
+      <c r="U42">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="V42">
+        <v>0.80149999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="X42">
+        <f>AVERAGE(U42:W42)</f>
+        <v>0.81036666666666657</v>
+      </c>
+      <c r="Y42">
+        <f>T42/X42</f>
+        <v>8.6685039693965695</v>
+      </c>
+      <c r="Z42">
+        <f>Y42/P42</f>
+        <v>0.90310272981778961</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="3">
-        <v>44719</v>
+      <c r="E43" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3">
-        <v>44719</v>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="6">
-        <v>43023</v>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5">
+        <v>44510</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="6">
-        <v>43023</v>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5">
+        <v>44510</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>133</v>
@@ -1838,209 +2180,256 @@
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44719</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="E49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="6">
-        <v>43048</v>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44719</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-    </row>
-    <row r="51" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44719</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44719</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44719</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="6">
-        <v>43048</v>
+        <v>43023</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>129</v>
       </c>
       <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-    </row>
-    <row r="56" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="I55" s="4">
+        <v>9.2289999999999992</v>
+      </c>
+      <c r="J55" s="4">
+        <v>8.9580000000000002</v>
+      </c>
+      <c r="K55">
+        <f>AVERAGE(H55:J55)</f>
+        <v>9.0263333333333335</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1.077</v>
+      </c>
+      <c r="M55" s="4">
+        <v>1.014</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.046</v>
+      </c>
+      <c r="O55">
+        <f>AVERAGE(L55:N55)</f>
+        <v>1.0456666666666667</v>
+      </c>
+      <c r="P55" s="4">
+        <f>K55/O55</f>
+        <v>8.6321326107746241</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>8.593</v>
+      </c>
+      <c r="R55" s="4">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="S55" s="4">
+        <v>8.3680000000000003</v>
+      </c>
+      <c r="T55">
+        <f>AVERAGE(Q55:S55)</f>
+        <v>8.576666666666668</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="X55">
+        <f>AVERAGE(U55:W55)</f>
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="Y55" s="4">
+        <f>T55/X55</f>
+        <v>8.7312090671553175</v>
+      </c>
+      <c r="Z55" s="4">
+        <f>P55/Y55</f>
+        <v>0.98865260748899086</v>
+      </c>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" s="6">
-        <v>43048</v>
+        <v>43023</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>129</v>
@@ -2048,614 +2437,904 @@
       <c r="G56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-    </row>
-    <row r="57" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="H56" s="4">
+        <v>7.8090000000000002</v>
+      </c>
+      <c r="I56" s="4">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="J56" s="4">
+        <v>7.8730000000000002</v>
+      </c>
+      <c r="K56">
+        <f>AVERAGE(H56:J56)</f>
+        <v>7.3323333333333336</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1.026</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="O56">
+        <f>AVERAGE(L56:N56)</f>
+        <v>1.0370000000000001</v>
+      </c>
+      <c r="P56" s="4">
+        <f>K56/O56</f>
+        <v>7.0707168113146892</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>7.7480000000000002</v>
+      </c>
+      <c r="R56" s="4">
+        <v>7.4470000000000001</v>
+      </c>
+      <c r="S56" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="T56">
+        <f>AVERAGE(Q56:S56)</f>
+        <v>7.498333333333334</v>
+      </c>
+      <c r="U56" s="4">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="V56" s="4">
+        <v>0.98868999999999996</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="X56">
+        <f>AVERAGE(U56:W56)</f>
+        <v>1.0038966666666667</v>
+      </c>
+      <c r="Y56" s="4">
+        <f>T56/X56</f>
+        <v>7.4692282406223756</v>
+      </c>
+      <c r="Z56" s="4">
+        <f>P56/Y56</f>
+        <v>0.94664623754026822</v>
+      </c>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="6">
-        <v>43048</v>
+      <c r="B57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="4">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-    </row>
-    <row r="58" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5">
-        <v>44370</v>
+        <v>138</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5">
-        <v>44370</v>
+        <v>138</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6">
+        <v>43048</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="5">
-        <v>44370</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H60" s="4">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="I60" s="4">
+        <v>8.0549999999999997</v>
+      </c>
+      <c r="J60" s="4">
+        <v>8.8889999999999993</v>
+      </c>
+      <c r="K60">
+        <f>AVERAGE(H60:J60)</f>
+        <v>8.7106666666666666</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1.036</v>
+      </c>
+      <c r="O60">
+        <f>AVERAGE(L60:N60)</f>
+        <v>1.0559999999999998</v>
+      </c>
+      <c r="P60" s="4">
+        <f>K60/O60</f>
+        <v>8.2487373737373755</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>7.83</v>
+      </c>
+      <c r="R60" s="4">
+        <v>7.6970000000000001</v>
+      </c>
+      <c r="S60" s="4">
+        <v>7.633</v>
+      </c>
+      <c r="T60">
+        <f>AVERAGE(Q60:S60)</f>
+        <v>7.72</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="V60" s="4">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="W60" s="4">
+        <v>0.874</v>
+      </c>
+      <c r="X60">
+        <f>AVERAGE(U60:W60)</f>
+        <v>0.87736666666666663</v>
+      </c>
+      <c r="Y60" s="4">
+        <f>T60/X60</f>
+        <v>8.7990577865582615</v>
+      </c>
+      <c r="Z60" s="4">
+        <f>P60/Y60</f>
+        <v>0.93745689297988544</v>
+      </c>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+    </row>
+    <row r="61" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="5">
-        <v>44370</v>
+        <v>9</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="3">
-        <v>44700</v>
+      <c r="E62" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="3">
-        <v>44700</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63">
+      <c r="E65" s="6">
+        <v>43048</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="H65" s="4">
+        <v>8.32</v>
+      </c>
+      <c r="I65" s="4">
+        <v>8.1460000000000008</v>
+      </c>
+      <c r="J65" s="4">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="K65">
+        <f>AVERAGE(H65:J65)</f>
+        <v>8.18</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1.333</v>
+      </c>
+      <c r="M65" s="4">
+        <v>1.329</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="O65">
+        <f>AVERAGE(L65:N65)</f>
+        <v>1.3216666666666665</v>
+      </c>
+      <c r="P65" s="4">
+        <f>K65/O65</f>
+        <v>6.1891551071878945</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>7.4340000000000002</v>
+      </c>
+      <c r="R65" s="4">
+        <v>7.6210000000000004</v>
+      </c>
+      <c r="S65" s="4">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="T65">
+        <f>AVERAGE(Q65:S65)</f>
+        <v>7.5606666666666662</v>
+      </c>
+      <c r="U65" s="4">
+        <v>1.083</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1.095</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="X65">
+        <f>AVERAGE(U65:W65)</f>
+        <v>1.0906666666666667</v>
+      </c>
+      <c r="Y65" s="4">
+        <f>T65/X65</f>
+        <v>6.9321515892420535</v>
+      </c>
+      <c r="Z65" s="4">
+        <f>P65/Y65</f>
+        <v>0.89281877747635974</v>
+      </c>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+    </row>
+    <row r="66" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6">
+        <v>43048</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>8.173</v>
+      </c>
+      <c r="I66" s="4">
+        <v>7.9729999999999999</v>
+      </c>
+      <c r="J66" s="4">
+        <v>7.8520000000000003</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE(H66:J66)</f>
+        <v>7.9993333333333334</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="M66" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O66">
+        <f>AVERAGE(L66:N66)</f>
+        <v>1.0216666666666665</v>
+      </c>
+      <c r="P66" s="4">
+        <f>K66/O66</f>
+        <v>7.8296900489396428</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>6.7089999999999996</v>
+      </c>
+      <c r="R66" s="4">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="S66" s="4">
+        <v>6.84</v>
+      </c>
+      <c r="T66">
+        <f>AVERAGE(Q66:S66)</f>
+        <v>6.8343333333333334</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="V66" s="4">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="W66" s="4">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="X66">
+        <f>AVERAGE(U66:W66)</f>
+        <v>0.97853333333333337</v>
+      </c>
+      <c r="Y66" s="4">
+        <f>T66/X66</f>
+        <v>6.984262161057365</v>
+      </c>
+      <c r="Z66" s="4">
+        <f>Y66/P66</f>
+        <v>0.89202281538631634</v>
+      </c>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E67" s="6">
+        <v>43048</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="J67" s="4">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="K67">
+        <f>AVERAGE(H67:J67)</f>
+        <v>3.605</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="M67" s="4">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1.153</v>
+      </c>
+      <c r="O67">
+        <f>AVERAGE(L67:N67)</f>
+        <v>1.147</v>
+      </c>
+      <c r="P67" s="4">
+        <f>K67/O67</f>
+        <v>3.1429816913687882</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>4.4589999999999996</v>
+      </c>
+      <c r="R67" s="4">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="S67" s="4">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="T67">
+        <f>AVERAGE(Q67:S67)</f>
+        <v>4.3506666666666662</v>
+      </c>
+      <c r="U67" s="4">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="V67" s="4">
+        <v>0.9587</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="X67">
+        <f>AVERAGE(U67:W67)</f>
+        <v>0.95996666666666675</v>
+      </c>
+      <c r="Y67" s="4">
+        <f>T67/X67</f>
+        <v>4.5321018090905927</v>
+      </c>
+      <c r="Z67" s="4">
+        <f>P67/Y67</f>
+        <v>0.69349317905094809</v>
+      </c>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+    </row>
+    <row r="68" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>44370</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="5">
+        <v>44370</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5">
+        <v>44370</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5">
+        <v>44370</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5">
         <v>44579</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="3">
-        <v>43581</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="3">
-        <v>43581</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
+      <c r="F74" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="5">
+        <v>44579</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="7">
-        <v>43581</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" s="4">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-    </row>
-    <row r="73" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-    </row>
-    <row r="76" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E76" s="5">
-        <v>43842</v>
+        <v>44579</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="5">
-        <v>43842</v>
+        <v>44579</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E79" s="5">
-        <v>43917</v>
+        <v>44579</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="5">
-        <v>43917</v>
+        <v>44579</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G80">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43581</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G81">
+    <row r="82" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3">
+        <v>43581</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
+    <row r="83" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="6">
-        <v>43917</v>
+      <c r="E83" s="7">
+        <v>43581</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>129</v>
@@ -2681,99 +3360,86 @@
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
-    </row>
-    <row r="84" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+    </row>
+    <row r="84" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="6">
-        <v>44170</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-    </row>
-    <row r="87" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="6">
-        <v>44170</v>
+        <v>9</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>130</v>
@@ -2797,74 +3463,155 @@
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
-    </row>
-    <row r="88" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+    </row>
+    <row r="88" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+    </row>
+    <row r="89" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+    </row>
+    <row r="90" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+    </row>
+    <row r="91" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="6">
-        <v>44170</v>
+        <v>138</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>130</v>
@@ -2888,190 +3635,361 @@
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
-    </row>
-    <row r="92" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+    </row>
+    <row r="92" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+    </row>
+    <row r="93" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+    </row>
+    <row r="94" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+    </row>
+    <row r="95" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+    </row>
+    <row r="96" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+    </row>
+    <row r="97" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+    </row>
+    <row r="98" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="5">
+        <v>43842</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="5">
+        <v>43842</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="5">
-        <v>44572</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="5">
-        <v>44579</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E100" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>132</v>
@@ -3079,210 +3997,149 @@
       <c r="D102" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" s="11" t="s">
+      <c r="E102" s="5"/>
+      <c r="F102" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="6">
-        <v>42956</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G103" s="4">
+      <c r="E103" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G103">
         <v>1</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-    </row>
-    <row r="104" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4" t="s">
+    </row>
+    <row r="104" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" s="4">
+      <c r="E105" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105">
         <v>1</v>
       </c>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-    </row>
-    <row r="105" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G105" s="4">
+    </row>
+    <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="5">
+        <v>43917</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G107">
         <v>1</v>
       </c>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-    </row>
-    <row r="106" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
-    </row>
-    <row r="107" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>132</v>
@@ -3290,25 +4147,28 @@
       <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E109" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>133</v>
+        <v>78</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="E110" s="6">
+        <v>43917</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>129</v>
@@ -3334,63 +4194,115 @@
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-    </row>
-    <row r="111" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+    </row>
+    <row r="111" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+    </row>
+    <row r="112" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+    </row>
+    <row r="113" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="D113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>70</v>
+      <c r="E113" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G113" s="4">
-        <v>0</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -3409,490 +4321,779 @@
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-    </row>
-    <row r="114" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+    </row>
+    <row r="114" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+    </row>
+    <row r="115" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="E115" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+    </row>
+    <row r="116" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>43917</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E117" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+        <v>43917</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="5">
-        <v>43532</v>
+      <c r="E118" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="E120" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+    </row>
+    <row r="121" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="4"/>
+    </row>
+    <row r="122" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+    </row>
+    <row r="123" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="D123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+    </row>
+    <row r="124" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+    </row>
+    <row r="125" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+    </row>
+    <row r="126" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+    </row>
+    <row r="127" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="E127" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+    </row>
+    <row r="128" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="2" t="s">
+      <c r="E128" s="5">
+        <v>44572</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="5">
-        <v>43532</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="D129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="5">
-        <v>43843</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D130" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E130" s="5">
-        <v>43843</v>
+        <v>44572</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="5">
-        <v>43843</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E132" s="5">
-        <v>43843</v>
+        <v>44572</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="5">
-        <v>43843</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F134" s="10"/>
-    </row>
-    <row r="135" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="6">
+        <v>44170</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+    </row>
+    <row r="136" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F136" s="10"/>
-    </row>
-    <row r="137" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E136" s="5">
+        <v>44572</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F138" s="10"/>
-    </row>
-    <row r="139" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>7</v>
@@ -3904,231 +5105,1129 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" s="5">
+        <v>138</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="5">
         <v>44572</v>
       </c>
-      <c r="F140" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F141" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="5">
+        <v>44579</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="5">
+        <v>44579</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="5">
+        <v>44579</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="5">
+        <v>44579</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="6">
+        <v>42956</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G150" s="4">
+        <v>1</v>
+      </c>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="4"/>
+    </row>
+    <row r="151" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G151" s="4">
+        <v>1</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
+      <c r="AA151" s="4"/>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="4"/>
+    </row>
+    <row r="152" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G152" s="4">
+        <v>1</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+      <c r="R152" s="4"/>
+      <c r="S152" s="4"/>
+      <c r="T152" s="4"/>
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="4"/>
+    </row>
+    <row r="153" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+      <c r="H153" s="11"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4"/>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
+      <c r="AA153" s="4"/>
+      <c r="AB153" s="4"/>
+      <c r="AC153" s="4"/>
+    </row>
+    <row r="154" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G157" s="4">
+        <v>1</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
+      <c r="R157" s="4"/>
+      <c r="S157" s="4"/>
+      <c r="T157" s="4"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
+      <c r="Z157" s="4"/>
+      <c r="AA157" s="4"/>
+      <c r="AB157" s="4"/>
+      <c r="AC157" s="4"/>
+    </row>
+    <row r="158" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
+      <c r="R160" s="4"/>
+      <c r="S160" s="4"/>
+      <c r="T160" s="4"/>
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
+      <c r="Z160" s="4"/>
+      <c r="AA160" s="4"/>
+      <c r="AB160" s="4"/>
+      <c r="AC160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="5">
+        <v>43532</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="5">
+        <v>43843</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="5">
+        <v>43843</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="5">
+        <v>43843</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="5">
+        <v>43843</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="5">
+        <v>43843</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="5">
+        <v>44572</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="5">
+        <v>44572</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="D192" s="2"/>
     </row>
@@ -7036,17 +9135,205 @@
       <c r="A918" s="2"/>
       <c r="D918" s="2"/>
     </row>
+    <row r="919" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A919" s="2"/>
+      <c r="D919" s="2"/>
+    </row>
+    <row r="920" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A920" s="2"/>
+      <c r="D920" s="2"/>
+    </row>
+    <row r="921" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A921" s="2"/>
+      <c r="D921" s="2"/>
+    </row>
+    <row r="922" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A922" s="2"/>
+      <c r="D922" s="2"/>
+    </row>
+    <row r="923" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A923" s="2"/>
+      <c r="D923" s="2"/>
+    </row>
+    <row r="924" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A924" s="2"/>
+      <c r="D924" s="2"/>
+    </row>
+    <row r="925" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A925" s="2"/>
+      <c r="D925" s="2"/>
+    </row>
+    <row r="926" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A926" s="2"/>
+      <c r="D926" s="2"/>
+    </row>
+    <row r="927" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A927" s="2"/>
+      <c r="D927" s="2"/>
+    </row>
+    <row r="928" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A928" s="2"/>
+      <c r="D928" s="2"/>
+    </row>
+    <row r="929" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A929" s="2"/>
+      <c r="D929" s="2"/>
+    </row>
+    <row r="930" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A930" s="2"/>
+      <c r="D930" s="2"/>
+    </row>
+    <row r="931" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A931" s="2"/>
+      <c r="D931" s="2"/>
+    </row>
+    <row r="932" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A932" s="2"/>
+      <c r="D932" s="2"/>
+    </row>
+    <row r="933" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A933" s="2"/>
+      <c r="D933" s="2"/>
+    </row>
+    <row r="934" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A934" s="2"/>
+      <c r="D934" s="2"/>
+    </row>
+    <row r="935" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A935" s="2"/>
+      <c r="D935" s="2"/>
+    </row>
+    <row r="936" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A936" s="2"/>
+      <c r="D936" s="2"/>
+    </row>
+    <row r="937" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A937" s="2"/>
+      <c r="D937" s="2"/>
+    </row>
+    <row r="938" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A938" s="2"/>
+      <c r="D938" s="2"/>
+    </row>
+    <row r="939" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A939" s="2"/>
+      <c r="D939" s="2"/>
+    </row>
+    <row r="940" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A940" s="2"/>
+      <c r="D940" s="2"/>
+    </row>
+    <row r="941" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A941" s="2"/>
+      <c r="D941" s="2"/>
+    </row>
+    <row r="942" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A942" s="2"/>
+      <c r="D942" s="2"/>
+    </row>
+    <row r="943" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A943" s="2"/>
+      <c r="D943" s="2"/>
+    </row>
+    <row r="944" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A944" s="2"/>
+      <c r="D944" s="2"/>
+    </row>
+    <row r="945" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A945" s="2"/>
+      <c r="D945" s="2"/>
+    </row>
+    <row r="946" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A946" s="2"/>
+      <c r="D946" s="2"/>
+    </row>
+    <row r="947" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A947" s="2"/>
+      <c r="D947" s="2"/>
+    </row>
+    <row r="948" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A948" s="2"/>
+      <c r="D948" s="2"/>
+    </row>
+    <row r="949" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A949" s="2"/>
+      <c r="D949" s="2"/>
+    </row>
+    <row r="950" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A950" s="2"/>
+      <c r="D950" s="2"/>
+    </row>
+    <row r="951" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A951" s="2"/>
+      <c r="D951" s="2"/>
+    </row>
+    <row r="952" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A952" s="2"/>
+      <c r="D952" s="2"/>
+    </row>
+    <row r="953" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A953" s="2"/>
+      <c r="D953" s="2"/>
+    </row>
+    <row r="954" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A954" s="2"/>
+      <c r="D954" s="2"/>
+    </row>
+    <row r="955" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A955" s="2"/>
+      <c r="D955" s="2"/>
+    </row>
+    <row r="956" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A956" s="2"/>
+      <c r="D956" s="2"/>
+    </row>
+    <row r="957" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A957" s="2"/>
+      <c r="D957" s="2"/>
+    </row>
+    <row r="958" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A958" s="2"/>
+      <c r="D958" s="2"/>
+    </row>
+    <row r="959" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A959" s="2"/>
+      <c r="D959" s="2"/>
+    </row>
+    <row r="960" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A960" s="2"/>
+      <c r="D960" s="2"/>
+    </row>
+    <row r="961" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A961" s="2"/>
+      <c r="D961" s="2"/>
+    </row>
+    <row r="962" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A962" s="2"/>
+      <c r="D962" s="2"/>
+    </row>
+    <row r="963" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A963" s="2"/>
+      <c r="D963" s="2"/>
+    </row>
+    <row r="964" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A964" s="2"/>
+      <c r="D964" s="2"/>
+    </row>
+    <row r="965" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A965" s="2"/>
+      <c r="D965" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y918">
-    <sortCondition ref="A2:A918"/>
-    <sortCondition ref="B2:B918"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC965">
+    <sortCondition ref="A2:A965"/>
+    <sortCondition ref="B2:B965"/>
   </sortState>
-  <conditionalFormatting sqref="F3:F28 F83:F89 F91:F113 E114:F120 E121:E140 D1:D918 A1:A918">
+  <conditionalFormatting sqref="D1:D965 F3:F34 F110 F116:F117 F120 F127:F128 F130 F135:F136 F139 F141:F145 F150:F153 F157 F160 E161:E162 E163:F167 E168:E187 A1:A965">
     <cfRule type="containsBlanks" dxfId="1" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F28 F83:F89 F91:F113 E114:F120 E121:E140 D1:D1048576">
+  <conditionalFormatting sqref="D1:D1048576 F3:F34 F110 F116:F117 F120 F127:F128 F130 F135:F136 F139 F141:F145 F150:F153 F157 F160 E161:E162 E163:F167 E168:E187">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ncko">
       <formula>NOT(ISERROR(SEARCH("ncko",D1)))</formula>
     </cfRule>

--- a/raw-data/Bmp7-CT-scans.xlsx
+++ b/raw-data/Bmp7-CT-scans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmrot\Documents\R\Bmp7-ins\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C06A743-67CC-42C7-A88C-6D001DA09187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C171337-A723-4E6C-8972-B1156AF7FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="13824" windowHeight="7104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,9 +1057,9 @@
   </sheetPr>
   <dimension ref="A1:AC965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB63" sqref="AB63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1462,10 @@
         <v>27</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
@@ -1756,7 +1759,10 @@
         <v>44510</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1776,7 +1782,10 @@
         <v>44510</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1816,7 +1825,10 @@
         <v>43675</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
